--- a/hcsa-licence-fe/src/main/resources/template/Co-location_Template.xlsx
+++ b/hcsa-licence-fe/src/main/resources/template/Co-location_Template.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -106,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -117,7 +122,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -546,14 +552,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -567,6 +573,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>